--- a/Code/Results/Cases/Case_5_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_66/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.490588410065016</v>
+        <v>0.8189485623979635</v>
       </c>
       <c r="C2">
-        <v>0.6021421383898087</v>
+        <v>0.206113156611309</v>
       </c>
       <c r="D2">
-        <v>0.04244011435421413</v>
+        <v>0.01661023264770733</v>
       </c>
       <c r="E2">
-        <v>0.1973378912769377</v>
+        <v>0.1162816279271155</v>
       </c>
       <c r="F2">
-        <v>0.476409892820044</v>
+        <v>0.5193643288226966</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9714923350744229</v>
+        <v>0.3402561718116885</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.287174186457293</v>
+        <v>1.682421352132451</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.168418858849464</v>
+        <v>0.7180603288547331</v>
       </c>
       <c r="C3">
-        <v>0.5333479836565687</v>
+        <v>0.1833884566699169</v>
       </c>
       <c r="D3">
-        <v>0.03793634379182009</v>
+        <v>0.01506045876318751</v>
       </c>
       <c r="E3">
-        <v>0.1725761497272913</v>
+        <v>0.1113171366859405</v>
       </c>
       <c r="F3">
-        <v>0.4346315760369137</v>
+        <v>0.5154294819497309</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8411327417321104</v>
+        <v>0.3024497049344745</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.198106337389021</v>
+        <v>1.683880131782217</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.971002228528391</v>
+        <v>0.6559750088288752</v>
       </c>
       <c r="C4">
-        <v>0.4911359676895017</v>
+        <v>0.1693662821470525</v>
       </c>
       <c r="D4">
-        <v>0.03517169458531555</v>
+        <v>0.01410483301199861</v>
       </c>
       <c r="E4">
-        <v>0.1579137412166745</v>
+        <v>0.1083944561522117</v>
       </c>
       <c r="F4">
-        <v>0.4104129417739344</v>
+        <v>0.5135291143290246</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.761680606722571</v>
+        <v>0.279281046064753</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.148180567778752</v>
+        <v>1.686508227068231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.890616490981557</v>
+        <v>0.6306408651642528</v>
       </c>
       <c r="C5">
-        <v>0.4739345433807216</v>
+        <v>0.1636350846413848</v>
       </c>
       <c r="D5">
-        <v>0.03404488631618818</v>
+        <v>0.01371441688246477</v>
       </c>
       <c r="E5">
-        <v>0.1520609614487114</v>
+        <v>0.1072346831979445</v>
       </c>
       <c r="F5">
-        <v>0.4008775377946918</v>
+        <v>0.5128838973984386</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7294260949910338</v>
+        <v>0.2698508697148299</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.128948530696164</v>
+        <v>1.68801315840787</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.87727129267202</v>
+        <v>0.6264321403134261</v>
       </c>
       <c r="C6">
-        <v>0.4710780932527712</v>
+        <v>0.1626824039169037</v>
       </c>
       <c r="D6">
-        <v>0.03385775914178879</v>
+        <v>0.01364952961489507</v>
       </c>
       <c r="E6">
-        <v>0.1510961089319096</v>
+        <v>0.1070439813154351</v>
       </c>
       <c r="F6">
-        <v>0.3993136095174918</v>
+        <v>0.5127845492537446</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7240769728145651</v>
+        <v>0.2682856754249983</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.125819921159689</v>
+        <v>1.688289212488456</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969917909242355</v>
+        <v>0.6556334792271912</v>
       </c>
       <c r="C7">
-        <v>0.4909039904620158</v>
+        <v>0.1692890577926391</v>
       </c>
       <c r="D7">
-        <v>0.03515649928497311</v>
+        <v>0.01409957169635589</v>
       </c>
       <c r="E7">
-        <v>0.1578343311613182</v>
+        <v>0.1083786889747103</v>
       </c>
       <c r="F7">
-        <v>0.4102830260784387</v>
+        <v>0.5135198902073483</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7612451457414622</v>
+        <v>0.2791538218791487</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.147916798763646</v>
+        <v>1.686526768222791</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.379399043808746</v>
+        <v>0.7841919542180449</v>
       </c>
       <c r="C8">
-        <v>0.5784119162115928</v>
+        <v>0.1982922165578316</v>
       </c>
       <c r="D8">
-        <v>0.04088684151567179</v>
+        <v>0.01607673009400656</v>
       </c>
       <c r="E8">
-        <v>0.1886790220477153</v>
+        <v>0.114543619128014</v>
       </c>
       <c r="F8">
-        <v>0.4616907410062439</v>
+        <v>0.5179002895121485</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9264062733471476</v>
+        <v>0.3272112240548211</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.255422807759118</v>
+        <v>1.68256377399527</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187365141363728</v>
+        <v>1.03514700229789</v>
       </c>
       <c r="C9">
-        <v>0.7505735031485017</v>
+        <v>0.2546071468800619</v>
       </c>
       <c r="D9">
-        <v>0.05214822497131166</v>
+        <v>0.01992062790949944</v>
       </c>
       <c r="E9">
-        <v>0.2541407036658825</v>
+        <v>0.1276444601686748</v>
       </c>
       <c r="F9">
-        <v>0.5751588828699141</v>
+        <v>0.5306039136335627</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.256208035664159</v>
+        <v>0.4218107545084138</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.508108333126899</v>
+        <v>1.688615801237745</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.786825699347105</v>
+        <v>1.218788417262431</v>
       </c>
       <c r="C10">
-        <v>0.877926967732833</v>
+        <v>0.2956286025206509</v>
       </c>
       <c r="D10">
-        <v>0.06046658905283664</v>
+        <v>0.02272324652925306</v>
       </c>
       <c r="E10">
-        <v>0.3063045236218684</v>
+        <v>0.1379085384689276</v>
       </c>
       <c r="F10">
-        <v>0.6681683952806736</v>
+        <v>0.5424777852966969</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.504029589029827</v>
+        <v>0.491545864713558</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.725407323223095</v>
+        <v>1.701600527165255</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.061500025455302</v>
+        <v>1.302165886917123</v>
       </c>
       <c r="C11">
-        <v>0.9361822293323314</v>
+        <v>0.3142115150776874</v>
       </c>
       <c r="D11">
-        <v>0.06426810713668374</v>
+        <v>0.02399333549279703</v>
       </c>
       <c r="E11">
-        <v>0.3311765905602613</v>
+        <v>0.1427215359027727</v>
       </c>
       <c r="F11">
-        <v>0.7130448387002843</v>
+        <v>0.5484382938233807</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.618439175383671</v>
+        <v>0.5233242407134497</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.832631311026773</v>
+        <v>1.709385711006405</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.165859092549795</v>
+        <v>1.333714577942033</v>
       </c>
       <c r="C12">
-        <v>0.9583000725726265</v>
+        <v>0.3212369096491727</v>
       </c>
       <c r="D12">
-        <v>0.06571084921138493</v>
+        <v>0.02447356517692612</v>
       </c>
       <c r="E12">
-        <v>0.3407833224150423</v>
+        <v>0.1445651473780529</v>
       </c>
       <c r="F12">
-        <v>0.7304503761170338</v>
+        <v>0.5507763043676448</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.662047115303267</v>
+        <v>0.5353660005513348</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.87457582331885</v>
+        <v>1.712605735224287</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.143367074539526</v>
+        <v>1.326921114491995</v>
       </c>
       <c r="C13">
-        <v>0.953533829790814</v>
+        <v>0.3197243843482624</v>
       </c>
       <c r="D13">
-        <v>0.06539997539201181</v>
+        <v>0.024370171858763</v>
       </c>
       <c r="E13">
-        <v>0.3387055616068082</v>
+        <v>0.1441671515381486</v>
       </c>
       <c r="F13">
-        <v>0.7266827437959904</v>
+        <v>0.5502691660462062</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.652642029832478</v>
+        <v>0.5327722373072277</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.865480359004039</v>
+        <v>1.711900121390528</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.070078403524008</v>
+        <v>1.304761915840174</v>
       </c>
       <c r="C14">
-        <v>0.9380006478634471</v>
+        <v>0.3147897319561821</v>
       </c>
       <c r="D14">
-        <v>0.064386734305657</v>
+        <v>0.02403285898713392</v>
       </c>
       <c r="E14">
-        <v>0.3319630239219649</v>
+        <v>0.1428727873517204</v>
       </c>
       <c r="F14">
-        <v>0.7144682905395427</v>
+        <v>0.5486290191895478</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.622020884913297</v>
+        <v>0.5243147636561361</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.836054403753622</v>
+        <v>1.709645163662174</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.025233945032028</v>
+        <v>1.291185532923805</v>
       </c>
       <c r="C15">
-        <v>0.928494021734025</v>
+        <v>0.3117656005384504</v>
       </c>
       <c r="D15">
-        <v>0.06376653173908409</v>
+        <v>0.02382614975771702</v>
       </c>
       <c r="E15">
-        <v>0.3278582896704236</v>
+        <v>0.1420827016407529</v>
       </c>
       <c r="F15">
-        <v>0.7070415507079275</v>
+        <v>0.5476349318981875</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.603302811687513</v>
+        <v>0.5191353557944751</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.818209089304474</v>
+        <v>1.708299406551873</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.768919999557852</v>
+        <v>1.213336136798944</v>
       </c>
       <c r="C16">
-        <v>0.8741272857954243</v>
+        <v>0.2944125675476812</v>
       </c>
       <c r="D16">
-        <v>0.06021855854071134</v>
+        <v>0.02264014333565711</v>
       </c>
       <c r="E16">
-        <v>0.3047040550970976</v>
+        <v>0.1375969218825475</v>
       </c>
       <c r="F16">
-        <v>0.6652908219056286</v>
+        <v>0.5420995445361001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.496589905031982</v>
+        <v>0.4894701897874825</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.718579912403101</v>
+        <v>1.701129701764216</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.612228038795195</v>
+        <v>1.165535675899321</v>
       </c>
       <c r="C17">
-        <v>0.8408653123849206</v>
+        <v>0.2837468334799667</v>
       </c>
       <c r="D17">
-        <v>0.05804692269401102</v>
+        <v>0.02191130663219099</v>
       </c>
       <c r="E17">
-        <v>0.2908085640853173</v>
+        <v>0.1348821270269269</v>
       </c>
       <c r="F17">
-        <v>0.6403645926100268</v>
+        <v>0.5388473054653531</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.431582954015255</v>
+        <v>0.4712857867037314</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.659698962460283</v>
+        <v>1.697213723266032</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.522285008600079</v>
+        <v>1.138026947618641</v>
       </c>
       <c r="C18">
-        <v>0.8217634097789812</v>
+        <v>0.2776048680865983</v>
       </c>
       <c r="D18">
-        <v>0.0567994529429896</v>
+        <v>0.02149164558431949</v>
       </c>
       <c r="E18">
-        <v>0.28292220957605</v>
+        <v>0.1333341643496269</v>
       </c>
       <c r="F18">
-        <v>0.6262664252732861</v>
+        <v>0.5370292913401471</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.394347475357691</v>
+        <v>0.4608318252870873</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.626611457696072</v>
+        <v>1.695138047170417</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.491861324712943</v>
+        <v>1.128710398603971</v>
       </c>
       <c r="C19">
-        <v>0.8153005658377879</v>
+        <v>0.2755240578840414</v>
       </c>
       <c r="D19">
-        <v>0.05637733601166417</v>
+        <v>0.02134947860522374</v>
       </c>
       <c r="E19">
-        <v>0.2802695353691647</v>
+        <v>0.1328123613503678</v>
       </c>
       <c r="F19">
-        <v>0.6215327883800512</v>
+        <v>0.5364227594858306</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.381765533487894</v>
+        <v>0.4572931914514271</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.615538460300854</v>
+        <v>1.694465549761162</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.62888889678311</v>
+        <v>1.170625695537751</v>
       </c>
       <c r="C20">
-        <v>0.8444029721249819</v>
+        <v>0.2848829788791249</v>
       </c>
       <c r="D20">
-        <v>0.05827792698588041</v>
+        <v>0.02198893969244864</v>
       </c>
       <c r="E20">
-        <v>0.2922766303803073</v>
+        <v>0.1351697202160054</v>
       </c>
       <c r="F20">
-        <v>0.6429930254159046</v>
+        <v>0.5391880655414241</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.438486737219421</v>
+        <v>0.4732210066174929</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.665885336444319</v>
+        <v>1.697612285663325</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.091595156272717</v>
+        <v>1.311271285801297</v>
       </c>
       <c r="C21">
-        <v>0.9425614519992109</v>
+        <v>0.3162394751710451</v>
       </c>
       <c r="D21">
-        <v>0.06468425541248735</v>
+        <v>0.02413195587918437</v>
       </c>
       <c r="E21">
-        <v>0.3339381592224271</v>
+        <v>0.1432523998164399</v>
       </c>
       <c r="F21">
-        <v>0.718044434849503</v>
+        <v>0.5491085705602785</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.631007001307367</v>
+        <v>0.5267987121660269</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.844659968222516</v>
+        <v>1.710300104299307</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.396049265857812</v>
+        <v>1.403047656824413</v>
       </c>
       <c r="C22">
-        <v>1.007057057206225</v>
+        <v>0.3366652746537682</v>
       </c>
       <c r="D22">
-        <v>0.06889012454217891</v>
+        <v>0.02552829881911123</v>
       </c>
       <c r="E22">
-        <v>0.3622764424805212</v>
+        <v>0.1486576641926973</v>
       </c>
       <c r="F22">
-        <v>0.7695179066547411</v>
+        <v>0.5560639487228087</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.758505621455726</v>
+        <v>0.5618613458505592</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.969389477186525</v>
+        <v>1.720178275538245</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.233347008744204</v>
+        <v>1.354078436813381</v>
       </c>
       <c r="C23">
-        <v>0.9725989829242678</v>
+        <v>0.3257699272813568</v>
       </c>
       <c r="D23">
-        <v>0.06664339315297241</v>
+        <v>0.02478344224559237</v>
       </c>
       <c r="E23">
-        <v>0.3470416170279336</v>
+        <v>0.1457614227133703</v>
       </c>
       <c r="F23">
-        <v>0.7418086580026824</v>
+        <v>0.5523083993855238</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.690288649141735</v>
+        <v>0.5431435036798717</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.902048437059761</v>
+        <v>1.714760389128429</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.6213560874628</v>
+        <v>1.168324583561343</v>
       </c>
       <c r="C24">
-        <v>0.8428035320795857</v>
+        <v>0.284369358959907</v>
       </c>
       <c r="D24">
-        <v>0.05817348677977918</v>
+        <v>0.02195384378720888</v>
       </c>
       <c r="E24">
-        <v>0.2916126005938935</v>
+        <v>0.1350396594651642</v>
       </c>
       <c r="F24">
-        <v>0.641803990715573</v>
+        <v>0.5390338467764622</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.435365110535884</v>
+        <v>0.4723460921623968</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.663086107475209</v>
+        <v>1.697431548524634</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.967980209076075</v>
+        <v>0.9673836328364587</v>
       </c>
       <c r="C25">
-        <v>0.7038880197478647</v>
+        <v>0.2394336589642592</v>
       </c>
       <c r="D25">
-        <v>0.04909623628439164</v>
+        <v>0.01888444193939165</v>
       </c>
       <c r="E25">
-        <v>0.2357977348421088</v>
+        <v>0.1239897549794406</v>
       </c>
       <c r="F25">
-        <v>0.5429177541822625</v>
+        <v>0.526723462292999</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.166167232844934</v>
+        <v>0.3961792111009004</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.434665084700072</v>
+        <v>1.685487169080346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_66/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8189485623979635</v>
+        <v>2.490588410065016</v>
       </c>
       <c r="C2">
-        <v>0.206113156611309</v>
+        <v>0.6021421383897518</v>
       </c>
       <c r="D2">
-        <v>0.01661023264770733</v>
+        <v>0.04244011435409334</v>
       </c>
       <c r="E2">
-        <v>0.1162816279271155</v>
+        <v>0.1973378912769519</v>
       </c>
       <c r="F2">
-        <v>0.5193643288226966</v>
+        <v>0.4764098928200369</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3402561718116885</v>
+        <v>0.9714923350744087</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.682421352132451</v>
+        <v>1.287174186457321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7180603288547331</v>
+        <v>2.168418858849691</v>
       </c>
       <c r="C3">
-        <v>0.1833884566699169</v>
+        <v>0.5333479836568813</v>
       </c>
       <c r="D3">
-        <v>0.01506045876318751</v>
+        <v>0.03793634379170641</v>
       </c>
       <c r="E3">
-        <v>0.1113171366859405</v>
+        <v>0.1725761497273197</v>
       </c>
       <c r="F3">
-        <v>0.5154294819497309</v>
+        <v>0.4346315760369137</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3024497049344745</v>
+        <v>0.8411327417321246</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.683880131782217</v>
+        <v>1.198106337389021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6559750088288752</v>
+        <v>1.971002228528363</v>
       </c>
       <c r="C4">
-        <v>0.1693662821470525</v>
+        <v>0.491135967689587</v>
       </c>
       <c r="D4">
-        <v>0.01410483301199861</v>
+        <v>0.03517169458547897</v>
       </c>
       <c r="E4">
-        <v>0.1083944561522117</v>
+        <v>0.1579137412166745</v>
       </c>
       <c r="F4">
-        <v>0.5135291143290246</v>
+        <v>0.410412941773906</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.279281046064753</v>
+        <v>0.761680606722571</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.686508227068231</v>
+        <v>1.14818056777878</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6306408651642528</v>
+        <v>1.890616490981586</v>
       </c>
       <c r="C5">
-        <v>0.1636350846413848</v>
+        <v>0.4739345433805227</v>
       </c>
       <c r="D5">
-        <v>0.01371441688246477</v>
+        <v>0.03404488631603897</v>
       </c>
       <c r="E5">
-        <v>0.1072346831979445</v>
+        <v>0.1520609614487185</v>
       </c>
       <c r="F5">
-        <v>0.5128838973984386</v>
+        <v>0.4008775377946918</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2698508697148299</v>
+        <v>0.7294260949910623</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.68801315840787</v>
+        <v>1.128948530696221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6264321403134261</v>
+        <v>1.877271292671992</v>
       </c>
       <c r="C6">
-        <v>0.1626824039169037</v>
+        <v>0.4710780932527143</v>
       </c>
       <c r="D6">
-        <v>0.01364952961489507</v>
+        <v>0.03385775914164668</v>
       </c>
       <c r="E6">
-        <v>0.1070439813154351</v>
+        <v>0.1510961089319096</v>
       </c>
       <c r="F6">
-        <v>0.5127845492537446</v>
+        <v>0.3993136095175061</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2682856754249983</v>
+        <v>0.7240769728145722</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.688289212488456</v>
+        <v>1.125819921159689</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6556334792271912</v>
+        <v>1.969917909242298</v>
       </c>
       <c r="C7">
-        <v>0.1692890577926391</v>
+        <v>0.4909039904617032</v>
       </c>
       <c r="D7">
-        <v>0.01409957169635589</v>
+        <v>0.03515649928499442</v>
       </c>
       <c r="E7">
-        <v>0.1083786889747103</v>
+        <v>0.1578343311613253</v>
       </c>
       <c r="F7">
-        <v>0.5135198902073483</v>
+        <v>0.4102830260784387</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2791538218791487</v>
+        <v>0.7612451457414693</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.686526768222791</v>
+        <v>1.147916798763617</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7841919542180449</v>
+        <v>2.379399043808803</v>
       </c>
       <c r="C8">
-        <v>0.1982922165578316</v>
+        <v>0.5784119162118486</v>
       </c>
       <c r="D8">
-        <v>0.01607673009400656</v>
+        <v>0.04088684151574284</v>
       </c>
       <c r="E8">
-        <v>0.114543619128014</v>
+        <v>0.1886790220477295</v>
       </c>
       <c r="F8">
-        <v>0.5179002895121485</v>
+        <v>0.4616907410062225</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3272112240548211</v>
+        <v>0.9264062733471548</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.68256377399527</v>
+        <v>1.255422807759174</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.03514700229789</v>
+        <v>3.187365141363898</v>
       </c>
       <c r="C9">
-        <v>0.2546071468800619</v>
+        <v>0.7505735031484448</v>
       </c>
       <c r="D9">
-        <v>0.01992062790949944</v>
+        <v>0.05214822497119798</v>
       </c>
       <c r="E9">
-        <v>0.1276444601686748</v>
+        <v>0.2541407036658896</v>
       </c>
       <c r="F9">
-        <v>0.5306039136335627</v>
+        <v>0.5751588828699141</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4218107545084138</v>
+        <v>1.256208035664173</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.688615801237745</v>
+        <v>1.508108333126927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.218788417262431</v>
+        <v>3.786825699347105</v>
       </c>
       <c r="C10">
-        <v>0.2956286025206509</v>
+        <v>0.8779269677330603</v>
       </c>
       <c r="D10">
-        <v>0.02272324652925306</v>
+        <v>0.0604665890527798</v>
       </c>
       <c r="E10">
-        <v>0.1379085384689276</v>
+        <v>0.3063045236218827</v>
       </c>
       <c r="F10">
-        <v>0.5424777852966969</v>
+        <v>0.6681683952806452</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.491545864713558</v>
+        <v>1.504029589029855</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.701600527165255</v>
+        <v>1.72540732322318</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.302165886917123</v>
+        <v>4.061500025455359</v>
       </c>
       <c r="C11">
-        <v>0.3142115150776874</v>
+        <v>0.9361822293326156</v>
       </c>
       <c r="D11">
-        <v>0.02399333549279703</v>
+        <v>0.06426810713679743</v>
       </c>
       <c r="E11">
-        <v>0.1427215359027727</v>
+        <v>0.3311765905602755</v>
       </c>
       <c r="F11">
-        <v>0.5484382938233807</v>
+        <v>0.7130448387002843</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5233242407134497</v>
+        <v>1.618439175383656</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.709385711006405</v>
+        <v>1.832631311026745</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333714577942033</v>
+        <v>4.165859092549908</v>
       </c>
       <c r="C12">
-        <v>0.3212369096491727</v>
+        <v>0.9583000725727402</v>
       </c>
       <c r="D12">
-        <v>0.02447356517692612</v>
+        <v>0.06571084921137071</v>
       </c>
       <c r="E12">
-        <v>0.1445651473780529</v>
+        <v>0.3407833224150636</v>
       </c>
       <c r="F12">
-        <v>0.5507763043676448</v>
+        <v>0.7304503761170196</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5353660005513348</v>
+        <v>1.662047115303281</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.712605735224287</v>
+        <v>1.874575823318878</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.326921114491995</v>
+        <v>4.143367074539356</v>
       </c>
       <c r="C13">
-        <v>0.3197243843482624</v>
+        <v>0.9535338297907856</v>
       </c>
       <c r="D13">
-        <v>0.024370171858763</v>
+        <v>0.0653999753921255</v>
       </c>
       <c r="E13">
-        <v>0.1441671515381486</v>
+        <v>0.3387055616068082</v>
       </c>
       <c r="F13">
-        <v>0.5502691660462062</v>
+        <v>0.7266827437960188</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5327722373072277</v>
+        <v>1.652642029832464</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.711900121390528</v>
+        <v>1.865480359004039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.304761915840174</v>
+        <v>4.070078403524064</v>
       </c>
       <c r="C14">
-        <v>0.3147897319561821</v>
+        <v>0.9380006478634471</v>
       </c>
       <c r="D14">
-        <v>0.02403285898713392</v>
+        <v>0.064386734305657</v>
       </c>
       <c r="E14">
-        <v>0.1428727873517204</v>
+        <v>0.3319630239219507</v>
       </c>
       <c r="F14">
-        <v>0.5486290191895478</v>
+        <v>0.714468290539557</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5243147636561361</v>
+        <v>1.622020884913269</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.709645163662174</v>
+        <v>1.836054403753536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.291185532923805</v>
+        <v>4.025233945031857</v>
       </c>
       <c r="C15">
-        <v>0.3117656005384504</v>
+        <v>0.9284940217341102</v>
       </c>
       <c r="D15">
-        <v>0.02382614975771702</v>
+        <v>0.06376653173906988</v>
       </c>
       <c r="E15">
-        <v>0.1420827016407529</v>
+        <v>0.3278582896704094</v>
       </c>
       <c r="F15">
-        <v>0.5476349318981875</v>
+        <v>0.7070415507079275</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5191353557944751</v>
+        <v>1.603302811687513</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.708299406551873</v>
+        <v>1.818209089304418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.213336136798944</v>
+        <v>3.768919999557852</v>
       </c>
       <c r="C16">
-        <v>0.2944125675476812</v>
+        <v>0.8741272857955096</v>
       </c>
       <c r="D16">
-        <v>0.02264014333565711</v>
+        <v>0.06021855854054081</v>
       </c>
       <c r="E16">
-        <v>0.1375969218825475</v>
+        <v>0.3047040550971332</v>
       </c>
       <c r="F16">
-        <v>0.5420995445361001</v>
+        <v>0.6652908219056144</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4894701897874825</v>
+        <v>1.496589905031996</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.701129701764216</v>
+        <v>1.718579912403044</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.165535675899321</v>
+        <v>3.61222803879491</v>
       </c>
       <c r="C17">
-        <v>0.2837468334799667</v>
+        <v>0.8408653123846648</v>
       </c>
       <c r="D17">
-        <v>0.02191130663219099</v>
+        <v>0.05804692269428813</v>
       </c>
       <c r="E17">
-        <v>0.1348821270269269</v>
+        <v>0.2908085640853244</v>
       </c>
       <c r="F17">
-        <v>0.5388473054653531</v>
+        <v>0.6403645926100126</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4712857867037314</v>
+        <v>1.431582954015255</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.697213723266032</v>
+        <v>1.659698962460254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.138026947618641</v>
+        <v>3.52228500860025</v>
       </c>
       <c r="C18">
-        <v>0.2776048680865983</v>
+        <v>0.8217634097790096</v>
       </c>
       <c r="D18">
-        <v>0.02149164558431949</v>
+        <v>0.05679945294314592</v>
       </c>
       <c r="E18">
-        <v>0.1333341643496269</v>
+        <v>0.28292220957605</v>
       </c>
       <c r="F18">
-        <v>0.5370292913401471</v>
+        <v>0.6262664252732861</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4608318252870873</v>
+        <v>1.394347475357691</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.695138047170417</v>
+        <v>1.626611457696072</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.128710398603971</v>
+        <v>3.491861324713057</v>
       </c>
       <c r="C19">
-        <v>0.2755240578840414</v>
+        <v>0.8153005658375321</v>
       </c>
       <c r="D19">
-        <v>0.02134947860522374</v>
+        <v>0.05637733601150074</v>
       </c>
       <c r="E19">
-        <v>0.1328123613503678</v>
+        <v>0.280269535369186</v>
       </c>
       <c r="F19">
-        <v>0.5364227594858306</v>
+        <v>0.6215327883800512</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4572931914514271</v>
+        <v>1.381765533487922</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.694465549761162</v>
+        <v>1.615538460300826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.170625695537751</v>
+        <v>3.628888896783053</v>
       </c>
       <c r="C20">
-        <v>0.2848829788791249</v>
+        <v>0.8444029721252946</v>
       </c>
       <c r="D20">
-        <v>0.02198893969244864</v>
+        <v>0.05827792698610779</v>
       </c>
       <c r="E20">
-        <v>0.1351697202160054</v>
+        <v>0.2922766303803286</v>
       </c>
       <c r="F20">
-        <v>0.5391880655414241</v>
+        <v>0.6429930254159189</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4732210066174929</v>
+        <v>1.438486737219435</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.697612285663325</v>
+        <v>1.665885336444319</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.311271285801297</v>
+        <v>4.091595156272604</v>
       </c>
       <c r="C21">
-        <v>0.3162394751710451</v>
+        <v>0.9425614519992394</v>
       </c>
       <c r="D21">
-        <v>0.02413195587918437</v>
+        <v>0.06468425541253708</v>
       </c>
       <c r="E21">
-        <v>0.1432523998164399</v>
+        <v>0.3339381592224484</v>
       </c>
       <c r="F21">
-        <v>0.5491085705602785</v>
+        <v>0.718044434849503</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5267987121660269</v>
+        <v>1.631007001307395</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.710300104299307</v>
+        <v>1.844659968222516</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.403047656824413</v>
+        <v>4.396049265857869</v>
       </c>
       <c r="C22">
-        <v>0.3366652746537682</v>
+        <v>1.007057057206197</v>
       </c>
       <c r="D22">
-        <v>0.02552829881911123</v>
+        <v>0.06889012454212207</v>
       </c>
       <c r="E22">
-        <v>0.1486576641926973</v>
+        <v>0.3622764424805069</v>
       </c>
       <c r="F22">
-        <v>0.5560639487228087</v>
+        <v>0.7695179066547411</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5618613458505592</v>
+        <v>1.758505621455726</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.720178275538245</v>
+        <v>1.969389477186468</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.354078436813381</v>
+        <v>4.233347008744033</v>
       </c>
       <c r="C23">
-        <v>0.3257699272813568</v>
+        <v>0.9725989829244384</v>
       </c>
       <c r="D23">
-        <v>0.02478344224559237</v>
+        <v>0.06664339315298662</v>
       </c>
       <c r="E23">
-        <v>0.1457614227133703</v>
+        <v>0.3470416170279336</v>
       </c>
       <c r="F23">
-        <v>0.5523083993855238</v>
+        <v>0.7418086580026682</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5431435036798717</v>
+        <v>1.690288649141735</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.714760389128429</v>
+        <v>1.902048437059705</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.168324583561343</v>
+        <v>3.621356087462914</v>
       </c>
       <c r="C24">
-        <v>0.284369358959907</v>
+        <v>0.8428035320795857</v>
       </c>
       <c r="D24">
-        <v>0.02195384378720888</v>
+        <v>0.05817348677977918</v>
       </c>
       <c r="E24">
-        <v>0.1350396594651642</v>
+        <v>0.291612600593929</v>
       </c>
       <c r="F24">
-        <v>0.5390338467764622</v>
+        <v>0.6418039907155872</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4723460921623968</v>
+        <v>1.435365110535869</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.697431548524634</v>
+        <v>1.663086107475209</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9673836328364587</v>
+        <v>2.967980209076075</v>
       </c>
       <c r="C25">
-        <v>0.2394336589642592</v>
+        <v>0.7038880197478647</v>
       </c>
       <c r="D25">
-        <v>0.01888444193939165</v>
+        <v>0.04909623628433479</v>
       </c>
       <c r="E25">
-        <v>0.1239897549794406</v>
+        <v>0.2357977348421088</v>
       </c>
       <c r="F25">
-        <v>0.526723462292999</v>
+        <v>0.5429177541822767</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3961792111009004</v>
+        <v>1.166167232844927</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.685487169080346</v>
+        <v>1.434665084700043</v>
       </c>
     </row>
   </sheetData>
